--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2058088.793340667</v>
+        <v>2133618.463005472</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0605760489983</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50.63805619101059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>206.0978190620148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>336.2207826707545</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>287.2841839626593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.31785343914008</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>146.6850513083903</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>82.76719169125803</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>170.2705563803511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.23145864971286</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1579,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2530778377178</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>16.5311374878183</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>66.14085215535397</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.41934813295853</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>87.26773759075628</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>21.7497820338049</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>10.12171901316629</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>180.2851782418415</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>109.4181417927811</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>114.8334503316611</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>3.334148296601503</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>276.9863416118691</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>16.50281054245872</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>278.026078680652</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>26.12759070766483</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.4286568439266</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.2693757866286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>125.9614383390685</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>119.0159375898651</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>105.092533528456</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>105.092533528456</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.9493689922781</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>358.0524302885</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>344.1290262270909</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487029</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464737</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464737</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>202.109700313688</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084172</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648871</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.690638606346</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.690638606346</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>643.8972509124312</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>225.9334428106181</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843238</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843238</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582158</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1293.690638606346</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148976</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>704.6628643582401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>704.6628643582401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>704.6628643582401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>704.6628643582401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>415.489254012808</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>415.489254012808</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646855</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1141.200876391121</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1141.200876391121</v>
+        <v>947.4376231502218</v>
       </c>
       <c r="V13" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
       <c r="W13" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>692.753134944335</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>314.4440414834072</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>164.0260330313505</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.4856756861153</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5494927582084</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>549.4328533458727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>401.5197597634796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>254.6298122655692</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
         <v>208.7516828383384</v>
@@ -5668,7 +5670,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>586.8578731486914</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>586.8578731486914</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.134140516355</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>944.8791849664159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>724.0866058228858</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,31 +6448,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6652,19 +6654,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>782.7991340754431</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>493.3819640384826</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.6964226305959</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="C34" t="n">
-        <v>268.760239702689</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D34" t="n">
-        <v>268.760239702689</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>268.760239702689</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>268.760239702689</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>100.5849180225096</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4581.070389567959</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4326.385901362072</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>4036.968731325112</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>3808.979180427094</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.6964226305959</v>
+        <v>3808.979180427094</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.9563154684962</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>428.9518662368188</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>428.9518662368188</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>282.0619187389084</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>113.886597058729</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.081847648153</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>963.3973594422661</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>963.3973594422661</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>963.3973594422661</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.6047802987359</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,16 +7165,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>3796.266898524763</v>
       </c>
       <c r="C40" t="n">
-        <v>441.900558318119</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="D40" t="n">
-        <v>291.7839189057833</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E40" t="n">
-        <v>291.7839189057833</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F40" t="n">
-        <v>291.7839189057833</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G40" t="n">
-        <v>123.6085972256039</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>4556.461172178405</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>4267.332533391963</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>4267.332533391963</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>3977.915363355003</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>3977.915363355003</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>3977.915363355003</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273991</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>844.0280401273991</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>844.0280401273991</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028816</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>175.2944832206715</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>269.7062149107591</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.27839330891803</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.0742203304191</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>164.8699057330717</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>196.8348713182899</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.5879363758709</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>38.29947511025333</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.82867930584673</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>137.3041929921669</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.5796800709346</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25129,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>9.251010786708207</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>132.4110178250774</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25366,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>8.211273717925337</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>122.7862376598713</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.1189042144627</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.3152775654662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26451,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060873</v>
+        <v>-284256.6304060869</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084573</v>
+        <v>305711.2488084574</v>
       </c>
       <c r="D6" t="n">
         <v>305711.2488084572</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665763</v>
+        <v>-111432.7393665765</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103197</v>
+        <v>413727.2971103195</v>
       </c>
       <c r="G6" t="n">
         <v>413727.2971103198</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103194</v>
+        <v>413727.2971103195</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103195</v>
+        <v>413727.2971103198</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177266</v>
+        <v>237304.0779177267</v>
       </c>
       <c r="K6" t="n">
         <v>413727.2971103195</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103198</v>
+        <v>413727.2971103195</v>
       </c>
       <c r="M6" t="n">
         <v>278926.2818764827</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103198</v>
+        <v>413727.2971103196</v>
       </c>
       <c r="O6" t="n">
         <v>413727.2971103195</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103195</v>
+        <v>413727.2971103197</v>
       </c>
     </row>
   </sheetData>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.67326561448232</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>101.2932600538507</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.48683429008003</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.05210910025306</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>36.63858880169789</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>105.2976195790723</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>9.485837533404862</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>271.9158499294249</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>153.6522163840061</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.891291305201388</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.821082683639</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133618.463005472</v>
+        <v>2126601.44811376</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>119.476552708313</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>50.63805619101059</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.51033041214347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.3208427877754</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>287.2841839626593</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>146.6850513083903</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>170.2705563803511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.70191565295202</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>16.5311374878183</v>
+        <v>58.73273296858857</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>59.7794577366496</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>85.8512317625306</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>87.26773759075628</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.7497820338049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>10.12171901316629</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.2851782418415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>109.4181417927811</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>276.9863416118691</v>
+        <v>164.8819720579273</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.50281054245872</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.4286568439266</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>250.0116345740623</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.7122078777245</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C2" t="n">
-        <v>511.7496909373128</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="D2" t="n">
-        <v>511.7496909373128</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="E2" t="n">
-        <v>125.9614383390685</v>
+        <v>1066.272969152933</v>
       </c>
       <c r="F2" t="n">
-        <v>119.0159375898651</v>
+        <v>655.2870643633255</v>
       </c>
       <c r="G2" t="n">
-        <v>105.092533528456</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>105.092533528456</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>336.5105482958257</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>189.6206007979154</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>189.6206007979154</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>189.6206007979154</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C5" t="n">
-        <v>1513.092286283102</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.826587676352</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E5" t="n">
-        <v>769.0383350781076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>358.0524302885</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>344.1290262270909</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>202.109700313688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>202.109700313688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>202.109700313688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1782.111371249201</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1413.148854308789</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.883155702039</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1054.883155702039</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>643.8972509124312</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>225.9334428106181</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.753134944335</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C13" t="n">
-        <v>523.8169520164281</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>947.4376231502218</v>
+        <v>1439.590277660338</v>
       </c>
       <c r="V13" t="n">
-        <v>692.753134944335</v>
+        <v>1184.905789454451</v>
       </c>
       <c r="W13" t="n">
-        <v>692.753134944335</v>
+        <v>895.4886194174906</v>
       </c>
       <c r="X13" t="n">
-        <v>692.753134944335</v>
+        <v>895.4886194174906</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.753134944335</v>
+        <v>895.4886194174906</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,22 +5263,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.8683222506741</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>183.9355073820339</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>183.9355073820339</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>183.9355073820339</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>586.8578731486914</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>586.8578731486914</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X19" t="n">
-        <v>358.8683222506741</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y19" t="n">
-        <v>358.8683222506741</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,37 +5764,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>809.2953582963255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>581.3058073983082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>944.8791849664159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>724.0866058228858</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188992</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>709.4512536188992</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>709.4512536188992</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3627.330715596854</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596854</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4581.070389567959</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.385901362072</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.968731325112</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X34" t="n">
-        <v>3808.979180427094</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y34" t="n">
-        <v>3808.979180427094</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7074,19 +7074,19 @@
         <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>579.0685056491545</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>428.9518662368188</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E37" t="n">
-        <v>428.9518662368188</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F37" t="n">
-        <v>282.0619187389084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>113.886597058729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3796.266898524763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4556.461172178405</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>4267.332533391963</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>4267.332533391963</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>3977.915363355003</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>3977.915363355003</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>3977.915363355003</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,25 +7405,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>269.7062149107591</v>
+        <v>227.5046194299888</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>24.56801370174139</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>164.8699057330717</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.8348713182899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.5879363758709</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.29947511025333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.82867930584673</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>9.251010786708207</v>
+        <v>121.35538034065</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4110178250774</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.1189042144627</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>259.2629056590285</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.126008749765703</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
@@ -26340,13 +26340,13 @@
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
@@ -26355,7 +26355,7 @@
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26450,16 +26450,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26481,16 +26481,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060869</v>
+        <v>-284256.6304060871</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084574</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084572</v>
+        <v>305711.2488084571</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665765</v>
+        <v>-112407.3306262984</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177267</v>
+        <v>236329.4866580051</v>
       </c>
       <c r="K6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764827</v>
+        <v>277951.6906167606</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103196</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>294.307617312482</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>101.2932600538507</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1051426060689</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0.644779004562821</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>68.72333012145305</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>36.63858880169789</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>9.485837533404862</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>153.6522163840061</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>231.821082683639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126601.44811376</v>
+        <v>2131540.710962792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>119.476552708313</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.3208427877754</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>313.2070399508087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>99.72476023394486</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.97516701831633</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.2541037431186</v>
       </c>
       <c r="U13" t="n">
-        <v>58.73273296858857</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.7794577366496</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>226.1741491427756</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.8512317625306</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>255.6160124902395</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>235.2707607354173</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>201.9329882306601</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>164.8819720579273</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>15.59458547084342</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>14.7366432835706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>27.26009267756244</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>250.0116345740623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.061221751177</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1452.061221751177</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1452.061221751177</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>1066.272969152933</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>655.2870643633255</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782189</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5105482958257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6206007979154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>189.6206007979154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>189.6206007979154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782189</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.883734065348</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.883734065348</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4792,25 +4792,25 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
         <v>348.7460229006679</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.8401545872508</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C13" t="n">
-        <v>713.8401545872508</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5202,49 +5202,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688031</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799323</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471151</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1395.629297080001</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.590277660338</v>
+        <v>1106.500658293559</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.905789454451</v>
+        <v>851.8161700876719</v>
       </c>
       <c r="W13" t="n">
-        <v>895.4886194174906</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="X13" t="n">
-        <v>895.4886194174906</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.4886194174906</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>757.5434800531123</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013836</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6003821033663</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.6003821033663</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>183.9355073820339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>183.9355073820339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>183.9355073820339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6183,16 +6183,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,10 +6448,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1132.448813950296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>877.7643257444088</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>877.7643257444088</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0156833089119</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>112.1025897265188</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,22 +7183,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>957.2506271511957</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8334571142351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978322</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>127.6461250100645</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>119.2934573152706</v>
       </c>
       <c r="U13" t="n">
-        <v>227.5046194299888</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.0525224452877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>25.9634941810524</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>24.56801370174139</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>30.90698584635155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.96659166316002</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>84.59001010593093</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>121.35538034065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25371,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>259.2629056590285</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.126008749765703</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="P2" t="n">
         <v>527889.230645907</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26444,16 +26444,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
+        <v>305711.2488084574</v>
+      </c>
+      <c r="D6" t="n">
         <v>305711.2488084572</v>
       </c>
-      <c r="D6" t="n">
-        <v>305711.2488084571</v>
-      </c>
       <c r="E6" t="n">
-        <v>-112407.3306262984</v>
+        <v>-111530.1984925485</v>
       </c>
       <c r="F6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843475</v>
       </c>
       <c r="G6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="H6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="I6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="J6" t="n">
-        <v>236329.4866580051</v>
+        <v>237206.6187917545</v>
       </c>
       <c r="K6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="L6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="M6" t="n">
-        <v>277951.6906167606</v>
+        <v>278828.8227505103</v>
       </c>
       <c r="N6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="O6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="P6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843475</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>294.307617312482</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0.644779004562821</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>68.72333012145305</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>314.0594097868501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>125.6900249618415</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>136.6435220329195</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.580678753416933e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958074</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299065</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,16 +35977,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>356.012295623815</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>460.8406984080775</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
